--- a/Assignment 6/SocialMediaRevenue.xlsx
+++ b/Assignment 6/SocialMediaRevenue.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>1 Master View</t>
   </si>
   <si>
-    <t>New Custom Report</t>
+    <t>Session 6A - Social Media Revenue</t>
   </si>
   <si>
     <t>20190830-20200928</t>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Pocket</t>
+  </si>
+  <si>
+    <t>Quora</t>
+  </si>
+  <si>
+    <t>reddit</t>
+  </si>
+  <si>
+    <t>VKontakte</t>
+  </si>
+  <si>
+    <t>wikiHow</t>
   </si>
   <si>
     <t>Month Index</t>
@@ -385,16 +397,84 @@
       </c>
     </row>
     <row>
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>542</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>560</v>
+      </c>
+    </row>
+    <row>
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>644</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>668</v>
+      </c>
+    </row>
+    <row>
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+    </row>
+    <row>
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>291</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>318</v>
+      </c>
+    </row>
+    <row>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>28470</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D16" s="1">
         <v>439.1</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>30873</v>
       </c>
     </row>
@@ -407,7 +487,7 @@
   <sheetData>
     <row>
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -415,7 +495,7 @@
     </row>
     <row>
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -423,7 +503,7 @@
     </row>
     <row>
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -431,7 +511,7 @@
     </row>
     <row>
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -439,7 +519,7 @@
     </row>
     <row>
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -447,7 +527,7 @@
     </row>
     <row>
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -455,7 +535,7 @@
     </row>
     <row>
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -463,7 +543,7 @@
     </row>
     <row>
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -471,7 +551,7 @@
     </row>
     <row>
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -479,7 +559,7 @@
     </row>
     <row>
       <c r="A10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -487,7 +567,7 @@
     </row>
     <row>
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -495,7 +575,7 @@
     </row>
     <row>
       <c r="A12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -503,7 +583,7 @@
     </row>
     <row>
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -511,7 +591,7 @@
     </row>
     <row>
       <c r="A14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -519,7 +599,7 @@
     </row>
     <row>
       <c r="A15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
